--- a/data/trans_dic/P56$familiar-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiar-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,38; 31,0</t>
+          <t>9,44; 31,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,82; 38,66</t>
+          <t>15,41; 38,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,51; 34,73</t>
+          <t>12,63; 33,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,9; 68,21</t>
+          <t>49,62; 66,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,4; 30,03</t>
+          <t>11,49; 29,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,96; 36,35</t>
+          <t>22,97; 36,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,7; 38,45</t>
+          <t>22,08; 39,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,05; 63,39</t>
+          <t>53,72; 63,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,58; 26,99</t>
+          <t>12,74; 27,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,92; 34,14</t>
+          <t>22,65; 33,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,98; 35,29</t>
+          <t>20,82; 34,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,23; 63,25</t>
+          <t>53,91; 62,63</t>
         </is>
       </c>
     </row>
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 80,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,75</t>
+          <t>0,0; 65,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +880,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,13; 50,61</t>
+          <t>21,81; 50,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,24</t>
+          <t>0,0; 66,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 54,62</t>
+          <t>0,0; 54,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,51</t>
+          <t>0,0; 18,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,8; 56,31</t>
+          <t>35,99; 57,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 57,82</t>
+          <t>7,57; 63,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 48,57</t>
+          <t>9,35; 45,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,25</t>
+          <t>0,0; 15,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,61; 50,83</t>
+          <t>33,39; 50,38</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,66; 61,71</t>
+          <t>7,74; 58,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,65; 65,89</t>
+          <t>8,71; 62,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,61; 51,4</t>
+          <t>13,5; 52,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,73; 33,45</t>
+          <t>11,14; 32,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,48; 38,19</t>
+          <t>16,3; 37,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,72; 26,4</t>
+          <t>9,78; 26,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>42,76; 58,43</t>
+          <t>43,39; 58,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 27,37</t>
+          <t>11,23; 27,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,73; 35,59</t>
+          <t>22,92; 35,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,83; 32,5</t>
+          <t>19,0; 33,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,51; 60,3</t>
+          <t>51,79; 60,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,78; 26,39</t>
+          <t>13,33; 26,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,26; 34,06</t>
+          <t>22,86; 33,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 29,37</t>
+          <t>17,99; 29,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,52; 58,15</t>
+          <t>50,69; 58,65</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar no conviviente cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8177</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17313</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12314</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>39824</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15890</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>54761</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>42334</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>117869</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24067</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>72074</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>54648</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>157693</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4168; 13948</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10539; 26459</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7161; 18846</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>33696; 45260</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9588; 24759</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>42720; 67065</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>31510; 56115</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>107733; 127248</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16253; 34701</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>57598; 85888</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>41526; 69014</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>144719; 168136</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1690</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9651</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1117</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3119</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>19429</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2806</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5111</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>29080</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3351</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5963</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1622</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5912; 13603</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4512</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6437</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4749</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15141; 24113</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>826; 6881</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1954; 9597</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5615</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23095; 34850</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1678</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2193</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3871</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>225; 986</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1877</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>501; 3771</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1493</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3281</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1630</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>563; 4071</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1493</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4275</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2086</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1748; 6799</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9866</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>20290</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12314</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>51153</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17006</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>58933</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>43407</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>139491</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>26873</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>79223</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>55722</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>190644</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5379; 15524</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12799; 29383</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7052; 19077</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>44035; 58984</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10506; 25341</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>46323; 72145</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>32633; 57110</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>129010; 150842</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>18898; 37160</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>64167; 95258</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>43864; 72276</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>177704; 205634</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>